--- a/docs/site.xlsx
+++ b/docs/site.xlsx
@@ -14,15 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
-  <si>
-    <t>siteName</t>
-  </si>
-  <si>
-    <t>scale</t>
-  </si>
-  <si>
-    <t>numofEmp</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="80">
+  <si>
+    <t>據點</t>
+  </si>
+  <si>
+    <t>規模</t>
+  </si>
+  <si>
+    <t>員工數</t>
+  </si>
+  <si>
+    <t>建置成本($)</t>
+  </si>
+  <si>
+    <t>服務成本($)</t>
+  </si>
+  <si>
+    <t>員工成本($)</t>
+  </si>
+  <si>
+    <t>總成本($)</t>
+  </si>
+  <si>
+    <t>年度總服務次數</t>
   </si>
   <si>
     <t>南港</t>
@@ -61,16 +76,184 @@
     <t>台東</t>
   </si>
   <si>
-    <t>彰化</t>
+    <t>固定據點</t>
   </si>
   <si>
     <t>前進據點</t>
   </si>
   <si>
-    <t>固定據點</t>
-  </si>
-  <si>
-    <t>不蓋據點</t>
+    <t>15,043,116</t>
+  </si>
+  <si>
+    <t>776,949</t>
+  </si>
+  <si>
+    <t>657,143</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1,627,860</t>
+  </si>
+  <si>
+    <t>2,430,696</t>
+  </si>
+  <si>
+    <t>675,948</t>
+  </si>
+  <si>
+    <t>1,227,060</t>
+  </si>
+  <si>
+    <t>2,335,812</t>
+  </si>
+  <si>
+    <t>189,420</t>
+  </si>
+  <si>
+    <t>31,902,083</t>
+  </si>
+  <si>
+    <t>6,419,933</t>
+  </si>
+  <si>
+    <t>15,679,433</t>
+  </si>
+  <si>
+    <t>3,440,283</t>
+  </si>
+  <si>
+    <t>3,891,333</t>
+  </si>
+  <si>
+    <t>10,218,667</t>
+  </si>
+  <si>
+    <t>32,431,333</t>
+  </si>
+  <si>
+    <t>16,211,550</t>
+  </si>
+  <si>
+    <t>10,654,950</t>
+  </si>
+  <si>
+    <t>11,157,767</t>
+  </si>
+  <si>
+    <t>8,522,450</t>
+  </si>
+  <si>
+    <t>5,319,633</t>
+  </si>
+  <si>
+    <t>2,727,222</t>
+  </si>
+  <si>
+    <t>155,880</t>
+  </si>
+  <si>
+    <t>103,230</t>
+  </si>
+  <si>
+    <t>25,956</t>
+  </si>
+  <si>
+    <t>54,696</t>
+  </si>
+  <si>
+    <t>492,560</t>
+  </si>
+  <si>
+    <t>1,452,640</t>
+  </si>
+  <si>
+    <t>317,184</t>
+  </si>
+  <si>
+    <t>307,460</t>
+  </si>
+  <si>
+    <t>1,045,564</t>
+  </si>
+  <si>
+    <t>129,876</t>
+  </si>
+  <si>
+    <t>472</t>
+  </si>
+  <si>
+    <t>49,672,421</t>
+  </si>
+  <si>
+    <t>7,352,762</t>
+  </si>
+  <si>
+    <t>16,439,806</t>
+  </si>
+  <si>
+    <t>3,466,239</t>
+  </si>
+  <si>
+    <t>3,946,029</t>
+  </si>
+  <si>
+    <t>12,339,087</t>
+  </si>
+  <si>
+    <t>36,314,669</t>
+  </si>
+  <si>
+    <t>17,204,682</t>
+  </si>
+  <si>
+    <t>12,189,470</t>
+  </si>
+  <si>
+    <t>14,539,143</t>
+  </si>
+  <si>
+    <t>8,841,746</t>
+  </si>
+  <si>
+    <t>5,320,105</t>
+  </si>
+  <si>
+    <t>30,922</t>
+  </si>
+  <si>
+    <t>6,729</t>
+  </si>
+  <si>
+    <t>15,802</t>
+  </si>
+  <si>
+    <t>2,949</t>
+  </si>
+  <si>
+    <t>2,948</t>
+  </si>
+  <si>
+    <t>9,666</t>
+  </si>
+  <si>
+    <t>23,305</t>
+  </si>
+  <si>
+    <t>10,696</t>
+  </si>
+  <si>
+    <t>9,663</t>
+  </si>
+  <si>
+    <t>12,021</t>
+  </si>
+  <si>
+    <t>5,216</t>
+  </si>
+  <si>
+    <t>2,474</t>
   </si>
 </sst>
 </file>
@@ -428,13 +611,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,148 +627,332 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="C2">
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
